--- a/Students_DataFrame(Modified).xlsx
+++ b/Students_DataFrame(Modified).xlsx
@@ -514,7 +514,7 @@
         <v>1.25</v>
       </c>
       <c r="K2" s="2">
-        <v>44167.72792248196</v>
+        <v>44167.73832389888</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -549,7 +549,7 @@
         <v>1.75</v>
       </c>
       <c r="K3" s="2">
-        <v>44167.72792248196</v>
+        <v>44167.73832389888</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -584,7 +584,7 @@
         <v>1.125</v>
       </c>
       <c r="K4" s="2">
-        <v>44167.72792248196</v>
+        <v>44167.73832389888</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -619,7 +619,7 @@
         <v>1.5</v>
       </c>
       <c r="K5" s="2">
-        <v>44167.72792248196</v>
+        <v>44167.73832389888</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -654,7 +654,7 @@
         <v>1.75</v>
       </c>
       <c r="K6" s="2">
-        <v>44167.72792248196</v>
+        <v>44167.73832389888</v>
       </c>
     </row>
   </sheetData>

--- a/Students_DataFrame(Modified).xlsx
+++ b/Students_DataFrame(Modified).xlsx
@@ -514,7 +514,7 @@
         <v>1.25</v>
       </c>
       <c r="K2" s="2">
-        <v>44167.73832389888</v>
+        <v>44169.65830291991</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -549,7 +549,7 @@
         <v>1.75</v>
       </c>
       <c r="K3" s="2">
-        <v>44167.73832389888</v>
+        <v>44169.65830291991</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -584,7 +584,7 @@
         <v>1.125</v>
       </c>
       <c r="K4" s="2">
-        <v>44167.73832389888</v>
+        <v>44169.65830291991</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -619,7 +619,7 @@
         <v>1.5</v>
       </c>
       <c r="K5" s="2">
-        <v>44167.73832389888</v>
+        <v>44169.65830291991</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -654,7 +654,7 @@
         <v>1.75</v>
       </c>
       <c r="K6" s="2">
-        <v>44167.73832389888</v>
+        <v>44169.65830291991</v>
       </c>
     </row>
   </sheetData>
